--- a/examples/sorting/output/got_study/got_sorting_study_measurement.xlsx
+++ b/examples/sorting/output/got_study/got_sorting_study_measurement.xlsx
@@ -463,28 +463,28 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>53074.42679999999</v>
+        <v>56088.5736</v>
       </c>
       <c r="D2">
-        <v>16519.2636</v>
+        <v>17501.4104</v>
       </c>
       <c r="E2">
-        <v>69593.69040000001</v>
+        <v>73589.984</v>
       </c>
       <c r="F2">
-        <v>0.0265372134</v>
+        <v>0.02804428679999999</v>
       </c>
       <c r="G2">
-        <v>0.0247788954</v>
+        <v>0.0262521156</v>
       </c>
       <c r="H2">
-        <v>0.0513161088</v>
+        <v>0.05429640239999999</v>
       </c>
       <c r="I2">
-        <v>185.626058862567</v>
+        <v>200.9096747548018</v>
       </c>
       <c r="J2">
-        <v>114.28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -495,28 +495,28 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>53074.42679999999</v>
+        <v>56088.5736</v>
       </c>
       <c r="D3">
-        <v>16519.2636</v>
+        <v>17501.4104</v>
       </c>
       <c r="E3">
-        <v>69593.69040000001</v>
+        <v>73589.984</v>
       </c>
       <c r="F3">
-        <v>0.0265372134</v>
+        <v>0.02804428679999999</v>
       </c>
       <c r="G3">
-        <v>0.0247788954</v>
+        <v>0.0262521156</v>
       </c>
       <c r="H3">
-        <v>0.0513161088</v>
+        <v>0.05429640239999999</v>
       </c>
       <c r="I3">
-        <v>185.626058862567</v>
+        <v>200.9096747548018</v>
       </c>
       <c r="J3">
-        <v>114.28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -527,28 +527,28 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>3542.0844</v>
+        <v>4756.891199999999</v>
       </c>
       <c r="D4">
-        <v>1077.1924</v>
+        <v>1687.1568</v>
       </c>
       <c r="E4">
-        <v>4619.2768</v>
+        <v>6444.048000000001</v>
       </c>
       <c r="F4">
-        <v>0.0017710422</v>
+        <v>0.002378445599999999</v>
       </c>
       <c r="G4">
-        <v>0.0016157886</v>
+        <v>0.0025307352</v>
       </c>
       <c r="H4">
-        <v>0.0033868308</v>
+        <v>0.004909180799999999</v>
       </c>
       <c r="I4">
-        <v>11.94905205025268</v>
+        <v>19.72629744374589</v>
       </c>
       <c r="J4">
-        <v>6.148400000000001</v>
+        <v>8.973200000000002</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -559,28 +559,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>53074.42679999999</v>
+        <v>56088.5736</v>
       </c>
       <c r="D5">
-        <v>16519.2636</v>
+        <v>17501.4104</v>
       </c>
       <c r="E5">
-        <v>69593.69040000001</v>
+        <v>73589.984</v>
       </c>
       <c r="F5">
-        <v>0.0265372134</v>
+        <v>0.02804428679999999</v>
       </c>
       <c r="G5">
-        <v>0.0247788954</v>
+        <v>0.0262521156</v>
       </c>
       <c r="H5">
-        <v>0.0513161088</v>
+        <v>0.05429640239999999</v>
       </c>
       <c r="I5">
-        <v>27.35732357271812</v>
+        <v>28.68585447891508</v>
       </c>
       <c r="J5">
-        <v>7.28</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -591,28 +591,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>53074.42679999999</v>
+        <v>56088.5736</v>
       </c>
       <c r="D6">
-        <v>16519.2636</v>
+        <v>17501.4104</v>
       </c>
       <c r="E6">
-        <v>69593.69040000001</v>
+        <v>73589.984</v>
       </c>
       <c r="F6">
-        <v>0.0265372134</v>
+        <v>0.02804428679999999</v>
       </c>
       <c r="G6">
-        <v>0.0247788954</v>
+        <v>0.0262521156</v>
       </c>
       <c r="H6">
-        <v>0.0513161088</v>
+        <v>0.05429640239999999</v>
       </c>
       <c r="I6">
-        <v>27.35732357271812</v>
+        <v>28.68585447891508</v>
       </c>
       <c r="J6">
-        <v>7.28</v>
+        <v>7.06</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -623,28 +623,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>3542.0844</v>
+        <v>4756.891199999999</v>
       </c>
       <c r="D7">
-        <v>1077.1924</v>
+        <v>1687.1568</v>
       </c>
       <c r="E7">
-        <v>4619.2768</v>
+        <v>6444.048000000001</v>
       </c>
       <c r="F7">
-        <v>0.0017710422</v>
+        <v>0.002378445599999999</v>
       </c>
       <c r="G7">
-        <v>0.0016157886</v>
+        <v>0.0025307352</v>
       </c>
       <c r="H7">
-        <v>0.0033868308</v>
+        <v>0.004909180799999999</v>
       </c>
       <c r="I7">
-        <v>3.122768874494639</v>
+        <v>4.715398718916206</v>
       </c>
       <c r="J7">
-        <v>0.8352000000000001</v>
+        <v>1.0112</v>
       </c>
     </row>
   </sheetData>
@@ -700,28 +700,28 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>132686067</v>
+        <v>140221434</v>
       </c>
       <c r="D2">
-        <v>41298159</v>
+        <v>43753526</v>
       </c>
       <c r="E2">
-        <v>173984226</v>
+        <v>183974960</v>
       </c>
       <c r="F2">
-        <v>66.3430335</v>
+        <v>70.11071699999998</v>
       </c>
       <c r="G2">
-        <v>61.9472385</v>
+        <v>65.630289</v>
       </c>
       <c r="H2">
-        <v>128.290272</v>
+        <v>135.7410059999999</v>
       </c>
       <c r="I2">
-        <v>464065.1471564174</v>
+        <v>502274.1868870044</v>
       </c>
       <c r="J2">
-        <v>285700</v>
+        <v>305000</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -732,28 +732,28 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>132686067</v>
+        <v>140221434</v>
       </c>
       <c r="D3">
-        <v>41298159</v>
+        <v>43753526</v>
       </c>
       <c r="E3">
-        <v>173984226</v>
+        <v>183974960</v>
       </c>
       <c r="F3">
-        <v>66.3430335</v>
+        <v>70.11071699999998</v>
       </c>
       <c r="G3">
-        <v>61.9472385</v>
+        <v>65.630289</v>
       </c>
       <c r="H3">
-        <v>128.290272</v>
+        <v>135.7410059999999</v>
       </c>
       <c r="I3">
-        <v>464065.1471564174</v>
+        <v>502274.1868870044</v>
       </c>
       <c r="J3">
-        <v>285700</v>
+        <v>305000</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -764,28 +764,28 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>8855211</v>
+        <v>11892228</v>
       </c>
       <c r="D4">
-        <v>2692981</v>
+        <v>4217892</v>
       </c>
       <c r="E4">
-        <v>11548192</v>
+        <v>16110120</v>
       </c>
       <c r="F4">
-        <v>4.427605499999999</v>
+        <v>5.946113999999996</v>
       </c>
       <c r="G4">
-        <v>4.039471499999999</v>
+        <v>6.326838</v>
       </c>
       <c r="H4">
-        <v>8.467077</v>
+        <v>12.272952</v>
       </c>
       <c r="I4">
-        <v>29872.63012563169</v>
+        <v>49315.74360936473</v>
       </c>
       <c r="J4">
-        <v>15371</v>
+        <v>22433</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -796,28 +796,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>132686067</v>
+        <v>140221434</v>
       </c>
       <c r="D5">
-        <v>41298159</v>
+        <v>43753526</v>
       </c>
       <c r="E5">
-        <v>173984226</v>
+        <v>183974960</v>
       </c>
       <c r="F5">
-        <v>66.3430335</v>
+        <v>70.11071699999998</v>
       </c>
       <c r="G5">
-        <v>61.9472385</v>
+        <v>65.630289</v>
       </c>
       <c r="H5">
-        <v>128.290272</v>
+        <v>135.7410059999999</v>
       </c>
       <c r="I5">
-        <v>68393.3089317953</v>
+        <v>71714.63619728771</v>
       </c>
       <c r="J5">
-        <v>18200</v>
+        <v>17650</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -828,28 +828,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>132686067</v>
+        <v>140221434</v>
       </c>
       <c r="D6">
-        <v>41298159</v>
+        <v>43753526</v>
       </c>
       <c r="E6">
-        <v>173984226</v>
+        <v>183974960</v>
       </c>
       <c r="F6">
-        <v>66.3430335</v>
+        <v>70.11071699999998</v>
       </c>
       <c r="G6">
-        <v>61.9472385</v>
+        <v>65.630289</v>
       </c>
       <c r="H6">
-        <v>128.290272</v>
+        <v>135.7410059999999</v>
       </c>
       <c r="I6">
-        <v>68393.3089317953</v>
+        <v>71714.63619728771</v>
       </c>
       <c r="J6">
-        <v>18200</v>
+        <v>17650</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -860,28 +860,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>8855211</v>
+        <v>11892228</v>
       </c>
       <c r="D7">
-        <v>2692981</v>
+        <v>4217892</v>
       </c>
       <c r="E7">
-        <v>11548192</v>
+        <v>16110120</v>
       </c>
       <c r="F7">
-        <v>4.427605499999999</v>
+        <v>5.946113999999996</v>
       </c>
       <c r="G7">
-        <v>4.039471499999999</v>
+        <v>6.326838</v>
       </c>
       <c r="H7">
-        <v>8.467077</v>
+        <v>12.272952</v>
       </c>
       <c r="I7">
-        <v>7806.922186236596</v>
+        <v>11788.49679729051</v>
       </c>
       <c r="J7">
-        <v>2088</v>
+        <v>2528</v>
       </c>
     </row>
   </sheetData>
